--- a/starter/src/main/resources/static/excel/team_member.xlsx
+++ b/starter/src/main/resources/static/excel/team_member.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26980" windowHeight="11380"/>
+    <workbookView windowHeight="17260"/>
   </bookViews>
   <sheets>
-    <sheet name="自动回复" sheetId="1" r:id="rId1"/>
+    <sheet name="member" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,25 +29,25 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
-    <t>Nickname</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Mobile</t>
-  </si>
-  <si>
-    <t>Job No</t>
-  </si>
-  <si>
-    <t>Job Title</t>
-  </si>
-  <si>
-    <t>Seat No</t>
-  </si>
-  <si>
-    <t>Telephone</t>
+    <t>昵称</t>
+  </si>
+  <si>
+    <t>邮箱</t>
+  </si>
+  <si>
+    <t>手机</t>
+  </si>
+  <si>
+    <t>工号</t>
+  </si>
+  <si>
+    <t>职位</t>
+  </si>
+  <si>
+    <t>座位号</t>
+  </si>
+  <si>
+    <t>电话</t>
   </si>
   <si>
     <t>test0</t>
@@ -105,13 +105,26 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -258,7 +271,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -267,6 +280,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -452,12 +471,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -560,157 +594,164 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -763,7 +804,221 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -773,7 +1028,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -783,39 +1038,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -894,200 +1149,136 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
@@ -1097,178 +1288,172 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="24.0288461538462" customWidth="1"/>
-    <col min="2" max="2" width="21.9423076923077" customWidth="1"/>
-    <col min="3" max="3" width="19.7019230769231" customWidth="1"/>
-    <col min="4" max="4" width="22.1153846153846" customWidth="1"/>
-    <col min="5" max="5" width="16.9903846153846" customWidth="1"/>
-    <col min="6" max="6" width="21.1442307692308" customWidth="1"/>
-    <col min="7" max="7" width="17.7884615384615" customWidth="1"/>
+    <col min="1" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="1" ht="21" spans="1:7">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+    <row r="2" s="1" customFormat="1" spans="1:7">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>18888888000</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>0</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
+    <row r="3" s="1" customFormat="1" spans="1:7">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>18800000001</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
+    <row r="4" s="1" customFormat="1" spans="1:7">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>18800000002</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>2</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
+    <row r="5" s="1" customFormat="1" spans="1:7">
+      <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>18800000003</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>3</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>3</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
+    <row r="6" s="1" customFormat="1" spans="1:7">
+      <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>18800000004</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>4</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>4</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
+    <row r="7" s="1" customFormat="1" spans="1:7">
+      <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>18800000005</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>5</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>5</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>5</v>
       </c>
     </row>
@@ -1282,7 +1467,6 @@
     <hyperlink ref="B7" r:id="rId6" display="105@email.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/starter/src/main/resources/static/excel/team_member.xlsx
+++ b/starter/src/main/resources/static/excel/team_member.xlsx
@@ -47,7 +47,7 @@
     <t>座位号</t>
   </si>
   <si>
-    <t>电话</t>
+    <t>分机号</t>
   </si>
   <si>
     <t>test0</t>
@@ -594,7 +594,7 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -746,7 +746,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1288,7 +1288,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="6"/>

--- a/starter/src/main/resources/static/excel/team_member.xlsx
+++ b/starter/src/main/resources/static/excel/team_member.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>昵称</t>
   </si>
@@ -44,6 +44,9 @@
     <t>职位</t>
   </si>
   <si>
+    <t>部门</t>
+  </si>
+  <si>
     <t>座位号</t>
   </si>
   <si>
@@ -59,6 +62,9 @@
     <t>CEO</t>
   </si>
   <si>
+    <t>管理部</t>
+  </si>
+  <si>
     <t>test1</t>
   </si>
   <si>
@@ -68,6 +74,9 @@
     <t>CTO</t>
   </si>
   <si>
+    <t>设计部</t>
+  </si>
+  <si>
     <t>test2</t>
   </si>
   <si>
@@ -77,10 +86,16 @@
     <t>member</t>
   </si>
   <si>
+    <t>开发部</t>
+  </si>
+  <si>
     <t>test3</t>
   </si>
   <si>
     <t>103@email.com</t>
+  </si>
+  <si>
+    <t>客服部</t>
   </si>
   <si>
     <t>test4</t>
@@ -1285,18 +1300,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="7" width="20" customWidth="1"/>
+    <col min="1" max="8" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" spans="1:7">
+    <row r="1" ht="21" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1318,13 +1333,16 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:7">
+    <row r="2" s="1" customFormat="1" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1">
         <v>18888888000</v>
@@ -1333,21 +1351,24 @@
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
       </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:7">
+    <row r="3" s="1" customFormat="1" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1">
         <v>18800000001</v>
@@ -1356,21 +1377,24 @@
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
       </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:7">
+    <row r="4" s="1" customFormat="1" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1">
         <v>18800000002</v>
@@ -1379,21 +1403,24 @@
         <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2</v>
+        <v>18</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G4" s="1">
         <v>2</v>
       </c>
+      <c r="H4" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:7">
+    <row r="5" s="1" customFormat="1" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1">
         <v>18800000003</v>
@@ -1402,21 +1429,24 @@
         <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="1">
-        <v>3</v>
+        <v>18</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="G5" s="1">
         <v>3</v>
       </c>
+      <c r="H5" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:7">
+    <row r="6" s="1" customFormat="1" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1">
         <v>18800000004</v>
@@ -1425,21 +1455,24 @@
         <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="1">
-        <v>4</v>
+        <v>18</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="G6" s="1">
         <v>4</v>
       </c>
+      <c r="H6" s="1">
+        <v>4</v>
+      </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:7">
+    <row r="7" s="1" customFormat="1" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1">
         <v>18800000005</v>
@@ -1448,12 +1481,15 @@
         <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="1">
+        <v>18</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="1">
         <v>5</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>5</v>
       </c>
     </row>

--- a/starter/src/main/resources/static/excel/team_member.xlsx
+++ b/starter/src/main/resources/static/excel/team_member.xlsx
@@ -62,7 +62,7 @@
     <t>CEO</t>
   </si>
   <si>
-    <t>管理部</t>
+    <t>测试部门</t>
   </si>
   <si>
     <t>test1</t>
@@ -74,7 +74,7 @@
     <t>CTO</t>
   </si>
   <si>
-    <t>设计部</t>
+    <t>设计部门</t>
   </si>
   <si>
     <t>test2</t>
@@ -86,7 +86,7 @@
     <t>member</t>
   </si>
   <si>
-    <t>开发部</t>
+    <t>开发部门</t>
   </si>
   <si>
     <t>test3</t>
@@ -95,7 +95,7 @@
     <t>103@email.com</t>
   </si>
   <si>
-    <t>客服部</t>
+    <t>运营部门</t>
   </si>
   <si>
     <t>test4</t>
@@ -1303,7 +1303,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="7"/>

--- a/starter/src/main/resources/static/excel/team_member.xlsx
+++ b/starter/src/main/resources/static/excel/team_member.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17260"/>
+    <workbookView windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="member" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>昵称</t>
   </si>
@@ -83,7 +83,7 @@
     <t>102@email.com</t>
   </si>
   <si>
-    <t>member</t>
+    <t>部门经理</t>
   </si>
   <si>
     <t>开发部门</t>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>104@email.com</t>
+  </si>
+  <si>
+    <t>员工</t>
   </si>
   <si>
     <t>test5</t>
@@ -1303,7 +1306,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="7"/>
@@ -1455,7 +1458,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>22</v>
@@ -1469,10 +1472,10 @@
     </row>
     <row r="7" s="1" customFormat="1" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1">
         <v>18800000005</v>
@@ -1481,7 +1484,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>22</v>
